--- a/soberano/test_cases/currency_modify_test_cases.xlsx
+++ b/soberano/test_cases/currency_modify_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -46,7 +46,13 @@
     <t xml:space="preserve">is reference currency</t>
   </si>
   <si>
-    <t xml:space="preserve">User1 is allowed to record currency</t>
+    <t xml:space="preserve">is cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment processor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User1 is allowed to modify currency</t>
   </si>
   <si>
     <t xml:space="preserve">mcurrency1</t>
@@ -58,7 +64,13 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">User2 is NOT allowed to record currency</t>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropipay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User2 is NOT allowed to modify currency</t>
   </si>
   <si>
     <t xml:space="preserve">mcurrency2</t>
@@ -67,13 +79,13 @@
     <t xml:space="preserve">mc2</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User3 is allowed to record currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User4 is allowed to record currency</t>
+    <t xml:space="preserve">opennode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User3 is allowed to modify currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User4 is allowed to modify currency</t>
   </si>
   <si>
     <t xml:space="preserve">mcurrency3</t>
@@ -82,7 +94,7 @@
     <t xml:space="preserve">mc3</t>
   </si>
   <si>
-    <t xml:space="preserve">User5 is NOT allowed to record currency</t>
+    <t xml:space="preserve">User5 is NOT allowed to modify currency</t>
   </si>
   <si>
     <t xml:space="preserve">mcurrency4</t>
@@ -91,10 +103,10 @@
     <t xml:space="preserve">mc4</t>
   </si>
   <si>
-    <t xml:space="preserve">User6 is allowed to record currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User7 is NOT allowed to record currency</t>
+    <t xml:space="preserve">User6 is allowed to modify currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User7 is NOT allowed to modify currency</t>
   </si>
   <si>
     <t xml:space="preserve">mcurrency5</t>
@@ -103,10 +115,10 @@
     <t xml:space="preserve">mc5</t>
   </si>
   <si>
-    <t xml:space="preserve">User8 is allowed to record currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User9 is NOT allowed to record currency</t>
+    <t xml:space="preserve">User8 is allowed to modify currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User9 is NOT allowed to modify currency</t>
   </si>
   <si>
     <t xml:space="preserve">mcurrency6</t>
@@ -115,10 +127,10 @@
     <t xml:space="preserve">mc6</t>
   </si>
   <si>
-    <t xml:space="preserve">User10 is allowed to record currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User11 is allowed to record currency</t>
+    <t xml:space="preserve">User10 is allowed to modify currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User11 is allowed to modify currency</t>
   </si>
   <si>
     <t xml:space="preserve">mcurrency7</t>
@@ -127,7 +139,7 @@
     <t xml:space="preserve">mc7</t>
   </si>
   <si>
-    <t xml:space="preserve">User12 is NOT allowed to record currency</t>
+    <t xml:space="preserve">User12 is NOT allowed to modify currency</t>
   </si>
   <si>
     <t xml:space="preserve">mcurrency8</t>
@@ -136,10 +148,10 @@
     <t xml:space="preserve">mc8</t>
   </si>
   <si>
-    <t xml:space="preserve">User13 is allowed to record currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User14 is allowed to record currency</t>
+    <t xml:space="preserve">User13 is allowed to modify currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User14 is allowed to modify currency</t>
   </si>
   <si>
     <t xml:space="preserve">mcurrency9</t>
@@ -148,10 +160,7 @@
     <t xml:space="preserve">mc9</t>
   </si>
   <si>
-    <t xml:space="preserve">User15 is allowed to record currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User16 is NOT allowed to record currency</t>
+    <t xml:space="preserve">User16 is NOT allowed to modify currency</t>
   </si>
   <si>
     <t xml:space="preserve">mcurrency91</t>
@@ -160,10 +169,10 @@
     <t xml:space="preserve">mc91</t>
   </si>
   <si>
-    <t xml:space="preserve">User1 tries to record another currency with the same name and fails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User1 tries to record another currency with the same code and fails</t>
+    <t xml:space="preserve">User1 tries to modify another currency with the same name and fails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User1 tries to modify another currency with the same code and fails</t>
   </si>
   <si>
     <t xml:space="preserve">check mc1 data is correctly shown in details panel</t>
@@ -333,24 +342,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ28"/>
+  <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="15:15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.08"/>
@@ -388,6 +397,12 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="AMJ1" s="0"/>
@@ -397,13 +412,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>2.23456789</v>
@@ -412,10 +427,16 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,13 +444,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>3</v>
@@ -438,10 +459,16 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>3</v>
@@ -464,10 +491,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,25 +508,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>4.3456789</v>
+        <v>4.34567809</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,13 +540,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>5</v>
@@ -516,9 +555,15 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -527,13 +572,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>5</v>
@@ -542,9 +587,15 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -553,25 +604,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>6.6789</v>
+        <v>6.67800009</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,25 +636,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>6.6789</v>
+        <v>6.67800009</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,13 +668,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>7</v>
@@ -620,9 +683,15 @@
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -631,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>7</v>
@@ -646,9 +715,15 @@
         <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -657,25 +732,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>8.89</v>
+        <v>8.00000089</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,13 +764,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>9</v>
@@ -698,9 +779,15 @@
         <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -709,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>9</v>
@@ -724,9 +811,15 @@
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -735,13 +828,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>10</v>
@@ -750,9 +843,15 @@
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -761,25 +860,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,25 +892,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,10 +924,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>45</v>
@@ -825,13 +936,19 @@
         <v>12</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,25 +956,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,7 +972,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,7 +980,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,7 +988,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,7 +996,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -905,7 +1004,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,7 +1012,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,15 +1020,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
